--- a/public/templet/company.xlsx
+++ b/public/templet/company.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>分局</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,16 +33,12 @@
     <t>申请时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>套餐导入模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -59,12 +55,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -74,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,28 +87,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection sqref="A1:IV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -428,32 +403,21 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
